--- a/config/进货额汇总.xlsx
+++ b/config/进货额汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="进货额" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -22,19 +22,25 @@
     <t>门店</t>
   </si>
   <si>
-    <t>进货金额</t>
+    <t>进货额</t>
   </si>
   <si>
-    <t>调入金额</t>
+    <t>调入</t>
   </si>
   <si>
-    <t>调出金额</t>
+    <t>调出</t>
   </si>
   <si>
-    <t>报损金额</t>
+    <t>报损</t>
   </si>
   <si>
-    <t>试吃招待</t>
+    <t>试吃</t>
+  </si>
+  <si>
+    <t>招待</t>
+  </si>
+  <si>
+    <t>折扣</t>
   </si>
   <si>
     <t>少货</t>
@@ -43,7 +49,7 @@
     <t>多货</t>
   </si>
   <si>
-    <t>折扣</t>
+    <t>饮料</t>
   </si>
 </sst>
 </file>
@@ -51,14 +57,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +81,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -83,12 +104,64 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -96,60 +169,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,51 +203,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -217,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,13 +239,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +353,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,139 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +436,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,30 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -485,35 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,137 +556,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,15 +695,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1050,23 +1075,23 @@
     <col min="10" max="10" width="12.4444444444444" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1078,8 +1103,14 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
